--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H2">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I2">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J2">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N2">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O2">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P2">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q2">
-        <v>15.97670096123067</v>
+        <v>29.10490196449333</v>
       </c>
       <c r="R2">
-        <v>143.790308651076</v>
+        <v>261.9441176804399</v>
       </c>
       <c r="S2">
-        <v>0.01408153393195947</v>
+        <v>0.03367569911844845</v>
       </c>
       <c r="T2">
-        <v>0.01408153393195947</v>
+        <v>0.03367569911844845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H3">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I3">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J3">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.046279</v>
       </c>
       <c r="O3">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P3">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q3">
-        <v>37.843807613484</v>
+        <v>53.56628395052999</v>
       </c>
       <c r="R3">
-        <v>340.594268521356</v>
+        <v>482.09655555477</v>
       </c>
       <c r="S3">
-        <v>0.03335474966433698</v>
+        <v>0.06197863381955649</v>
       </c>
       <c r="T3">
-        <v>0.03335474966433698</v>
+        <v>0.06197863381955648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H4">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I4">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J4">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N4">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O4">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P4">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q4">
-        <v>35.29957139623068</v>
+        <v>45.47149695751001</v>
       </c>
       <c r="R4">
-        <v>317.696142566076</v>
+        <v>409.24347261759</v>
       </c>
       <c r="S4">
-        <v>0.03111231246086734</v>
+        <v>0.05261259604566437</v>
       </c>
       <c r="T4">
-        <v>0.03111231246086733</v>
+        <v>0.05261259604566436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H5">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I5">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J5">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N5">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O5">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P5">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q5">
-        <v>81.08454760850667</v>
+        <v>60.96687633837667</v>
       </c>
       <c r="R5">
-        <v>729.76092847656</v>
+        <v>548.70188704539</v>
       </c>
       <c r="S5">
-        <v>0.07146624395596238</v>
+        <v>0.07054145677135484</v>
       </c>
       <c r="T5">
-        <v>0.07146624395596238</v>
+        <v>0.07054145677135483</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>49.230993</v>
       </c>
       <c r="I6">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J6">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N6">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O6">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P6">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q6">
-        <v>39.36569824482633</v>
+        <v>50.66409626600932</v>
       </c>
       <c r="R6">
-        <v>354.291284203437</v>
+        <v>455.9768663940839</v>
       </c>
       <c r="S6">
-        <v>0.03469611260390643</v>
+        <v>0.05862067029271091</v>
       </c>
       <c r="T6">
-        <v>0.03469611260390643</v>
+        <v>0.05862067029271091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>49.230993</v>
       </c>
       <c r="I7">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J7">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.046279</v>
       </c>
       <c r="O7">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P7">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q7">
         <v>93.24502690278298</v>
@@ -883,10 +883,10 @@
         <v>839.2052421250469</v>
       </c>
       <c r="S7">
-        <v>0.0821842390055519</v>
+        <v>0.1078887492595069</v>
       </c>
       <c r="T7">
-        <v>0.08218423900555191</v>
+        <v>0.1078887492595069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>49.230993</v>
       </c>
       <c r="I8">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J8">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N8">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O8">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P8">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q8">
-        <v>86.97617105857634</v>
+        <v>79.154099265661</v>
       </c>
       <c r="R8">
-        <v>782.785539527187</v>
+        <v>712.386893390949</v>
       </c>
       <c r="S8">
-        <v>0.07665899906402904</v>
+        <v>0.09158490326179679</v>
       </c>
       <c r="T8">
-        <v>0.07665899906402904</v>
+        <v>0.09158490326179679</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>49.230993</v>
       </c>
       <c r="I9">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J9">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N9">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O9">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P9">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q9">
-        <v>199.7877935639133</v>
+        <v>106.1275415259477</v>
       </c>
       <c r="R9">
-        <v>1798.09014207522</v>
+        <v>955.147873733529</v>
       </c>
       <c r="S9">
-        <v>0.1760888309225043</v>
+        <v>0.122794406281405</v>
       </c>
       <c r="T9">
-        <v>0.1760888309225043</v>
+        <v>0.122794406281405</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H10">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I10">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J10">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N10">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O10">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P10">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q10">
-        <v>16.42590465417434</v>
+        <v>22.26909480842266</v>
       </c>
       <c r="R10">
-        <v>147.833141887569</v>
+        <v>200.421853275804</v>
       </c>
       <c r="S10">
-        <v>0.01447745278028099</v>
+        <v>0.02576635844104617</v>
       </c>
       <c r="T10">
-        <v>0.01447745278028099</v>
+        <v>0.02576635844104617</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H11">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I11">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J11">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.046279</v>
       </c>
       <c r="O11">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P11">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q11">
-        <v>38.90783066657099</v>
+        <v>40.98528341667299</v>
       </c>
       <c r="R11">
-        <v>350.170475999139</v>
+        <v>368.867550750057</v>
       </c>
       <c r="S11">
-        <v>0.03429255758618454</v>
+        <v>0.04742184235178</v>
       </c>
       <c r="T11">
-        <v>0.03429255758618455</v>
+        <v>0.04742184235177999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H12">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I12">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J12">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N12">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O12">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P12">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q12">
-        <v>36.29206026292434</v>
+        <v>34.791702032291</v>
       </c>
       <c r="R12">
-        <v>326.628542366319</v>
+        <v>313.125318290619</v>
       </c>
       <c r="S12">
-        <v>0.03198707162969403</v>
+        <v>0.04025558618570456</v>
       </c>
       <c r="T12">
-        <v>0.03198707162969403</v>
+        <v>0.04025558618570455</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H13">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I13">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J13">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N13">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O13">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P13">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q13">
-        <v>83.36433480079332</v>
+        <v>46.64771422384433</v>
       </c>
       <c r="R13">
-        <v>750.27901320714</v>
+        <v>419.829428014599</v>
       </c>
       <c r="S13">
-        <v>0.0734756012559289</v>
+        <v>0.05397353307295006</v>
       </c>
       <c r="T13">
-        <v>0.07347560125592892</v>
+        <v>0.05397353307295005</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H14">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I14">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J14">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N14">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O14">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P14">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q14">
-        <v>34.73249939251834</v>
+        <v>30.97738470002622</v>
       </c>
       <c r="R14">
-        <v>312.5924945326651</v>
+        <v>278.796462300236</v>
       </c>
       <c r="S14">
-        <v>0.03061250692019178</v>
+        <v>0.03584224705196225</v>
       </c>
       <c r="T14">
-        <v>0.03061250692019179</v>
+        <v>0.03584224705196225</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H15">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I15">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J15">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.046279</v>
       </c>
       <c r="O15">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P15">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q15">
-        <v>82.27042792723499</v>
+        <v>57.012505553557</v>
       </c>
       <c r="R15">
-        <v>740.433851345115</v>
+        <v>513.112549982013</v>
       </c>
       <c r="S15">
-        <v>0.07251145435252283</v>
+        <v>0.06596606940482715</v>
       </c>
       <c r="T15">
-        <v>0.07251145435252285</v>
+        <v>0.06596606940482713</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H16">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I16">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J16">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N16">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O16">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P16">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q16">
-        <v>76.73939351126835</v>
+        <v>48.39693519178567</v>
       </c>
       <c r="R16">
-        <v>690.6545416014151</v>
+        <v>435.5724167260711</v>
       </c>
       <c r="S16">
-        <v>0.06763651496445591</v>
+        <v>0.05599746151909073</v>
       </c>
       <c r="T16">
-        <v>0.06763651496445591</v>
+        <v>0.05599746151909073</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H17">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I17">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J17">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N17">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O17">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P17">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q17">
-        <v>176.2735002294333</v>
+        <v>64.88921985021011</v>
       </c>
       <c r="R17">
-        <v>1586.4615020649</v>
+        <v>584.0029786518911</v>
       </c>
       <c r="S17">
-        <v>0.1553638189016232</v>
+        <v>0.07507978712219548</v>
       </c>
       <c r="T17">
-        <v>0.1553638189016232</v>
+        <v>0.07507978712219548</v>
       </c>
     </row>
   </sheetData>
